--- a/Plan_de_tests_P5.xlsx
+++ b/Plan_de_tests_P5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Steven/Documents/P5_ranarivelo_steven/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE42F47A-4E24-EA4E-B534-3F4931DFE0A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E826DA9E-7D68-1E49-B5CD-F8EA11704D2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="440" windowWidth="36420" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10660" yWindow="440" windowWidth="25600" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Problème possible</t>
-  </si>
-  <si>
-    <t>69 à 82</t>
   </si>
   <si>
     <t>infos</t>
@@ -103,16 +100,7 @@
     <t>Le formulaire est imcomplet, panier vide,  problème de connexion avec le back-end ou mauvais format d'un des champs.</t>
   </si>
   <si>
-    <t>3 à 18</t>
-  </si>
-  <si>
-    <t>9 à 31</t>
-  </si>
-  <si>
     <t>La fonction récupére l'image, le nom, le prix et les lentilles disponibles pour l'appareil selectionné et l'affiche.</t>
-  </si>
-  <si>
-    <t>35 à 44</t>
   </si>
   <si>
     <t>La fonction va écouter le click de l'utilisateur sur le button et va ensuite envoyer l'id de l'appareil dans l'item "panier" qui sera créé dans le localStorage .</t>
@@ -121,16 +109,7 @@
     <t>panier2.js</t>
   </si>
   <si>
-    <t>8 à 26</t>
-  </si>
-  <si>
     <t>Appeller la fonction avec différentes valeurs de tests (valeur vide, id d'un ou plusieurs éléments...), et on observe la valeur retournée, avec un console.log par exemple.</t>
-  </si>
-  <si>
-    <t>39 à 67</t>
-  </si>
-  <si>
-    <t>73 à 104</t>
   </si>
   <si>
     <t xml:space="preserve">La fonction admet comme argument 'formulaire' afin de lui indiquer quelles éléments envoyer. Ensuite elle envoie les éléments du formulaires stockés dans les variables "contact" et "products". </t>
@@ -143,6 +122,27 @@
   </si>
   <si>
     <t>La fonction vérifie que tous les ok sont à true; si c'est le cas, il exécute la fonction post et envoies les inputs ainsi que les éléments du panier au serveur. La fonction fait appel à la fonction 'post'.</t>
+  </si>
+  <si>
+    <t>3 à 13</t>
+  </si>
+  <si>
+    <t>10 à 29</t>
+  </si>
+  <si>
+    <t>34 à 42</t>
+  </si>
+  <si>
+    <t>7 à 22</t>
+  </si>
+  <si>
+    <t>35 à 63</t>
+  </si>
+  <si>
+    <t>69 à 101</t>
+  </si>
+  <si>
+    <t>104 à 116</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -532,142 +532,142 @@
     </row>
     <row r="3" spans="1:26" ht="70" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="70" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="70" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="71" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="70" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="7" spans="1:26" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
+      <c r="B7" s="5" t="s">
+        <v>38</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>29</v>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>20</v>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>22</v>
+      <c r="E7" s="6" t="s">
+        <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="70" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
-        <v>13</v>
+      <c r="F7" s="6" t="s">
+        <v>23</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="8" spans="1:26" ht="80" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="71" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="5" t="s">
+    </row>
+    <row r="9" spans="1:26" ht="79" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="80" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="79" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
